--- a/data/financial_statements/soci/STT.xlsx
+++ b/data/financial_statements/soci/STT.xlsx
@@ -14,9 +14,129 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
-  <si>
-    <t>Unnamed: 0</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="74">
+  <si>
+    <t>2022-12-31</t>
+  </si>
+  <si>
+    <t>2022-09-30</t>
+  </si>
+  <si>
+    <t>2022-06-30</t>
+  </si>
+  <si>
+    <t>2022-03-31</t>
+  </si>
+  <si>
+    <t>2021-12-31</t>
+  </si>
+  <si>
+    <t>2021-09-30</t>
+  </si>
+  <si>
+    <t>2021-06-30</t>
+  </si>
+  <si>
+    <t>2021-03-31</t>
+  </si>
+  <si>
+    <t>2020-12-31</t>
+  </si>
+  <si>
+    <t>2020-09-30</t>
+  </si>
+  <si>
+    <t>2020-06-30</t>
+  </si>
+  <si>
+    <t>2020-03-31</t>
+  </si>
+  <si>
+    <t>2019-12-31</t>
+  </si>
+  <si>
+    <t>2019-09-30</t>
+  </si>
+  <si>
+    <t>2019-06-30</t>
+  </si>
+  <si>
+    <t>2019-03-31</t>
+  </si>
+  <si>
+    <t>2018-12-31</t>
+  </si>
+  <si>
+    <t>2018-09-30</t>
+  </si>
+  <si>
+    <t>2018-06-30</t>
+  </si>
+  <si>
+    <t>2018-03-31</t>
+  </si>
+  <si>
+    <t>2017-12-31</t>
+  </si>
+  <si>
+    <t>2017-09-30</t>
+  </si>
+  <si>
+    <t>2017-06-30</t>
+  </si>
+  <si>
+    <t>2017-03-31</t>
+  </si>
+  <si>
+    <t>2016-12-31</t>
+  </si>
+  <si>
+    <t>2016-09-30</t>
+  </si>
+  <si>
+    <t>2016-06-30</t>
+  </si>
+  <si>
+    <t>2016-03-31</t>
+  </si>
+  <si>
+    <t>2015-12-31</t>
+  </si>
+  <si>
+    <t>2015-09-30</t>
+  </si>
+  <si>
+    <t>2015-06-30</t>
+  </si>
+  <si>
+    <t>2015-03-31</t>
+  </si>
+  <si>
+    <t>2014-12-31</t>
+  </si>
+  <si>
+    <t>2014-09-30</t>
+  </si>
+  <si>
+    <t>2014-06-30</t>
+  </si>
+  <si>
+    <t>2014-03-31</t>
+  </si>
+  <si>
+    <t>2013-12-31</t>
+  </si>
+  <si>
+    <t>2013-09-30</t>
+  </si>
+  <si>
+    <t>2013-06-30</t>
+  </si>
+  <si>
+    <t>2013-03-31</t>
+  </si>
+  <si>
+    <t>Item</t>
   </si>
   <si>
     <t>Revenue</t>
@@ -122,9 +242,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
-  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -177,12 +294,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -479,959 +593,980 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AN34"/>
+  <dimension ref="A1:AO34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:40">
+    <row r="1" spans="1:41">
       <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2">
-        <v>44834</v>
-      </c>
-      <c r="C1" s="2">
-        <v>44742</v>
-      </c>
-      <c r="D1" s="2">
-        <v>44651</v>
-      </c>
-      <c r="E1" s="2">
-        <v>44561</v>
-      </c>
-      <c r="F1" s="2">
-        <v>44469</v>
-      </c>
-      <c r="G1" s="2">
-        <v>44377</v>
-      </c>
-      <c r="H1" s="2">
-        <v>44286</v>
-      </c>
-      <c r="I1" s="2">
-        <v>44196</v>
-      </c>
-      <c r="J1" s="2">
-        <v>44104</v>
-      </c>
-      <c r="K1" s="2">
-        <v>44012</v>
-      </c>
-      <c r="L1" s="2">
-        <v>43921</v>
-      </c>
-      <c r="M1" s="2">
-        <v>43830</v>
-      </c>
-      <c r="N1" s="2">
-        <v>43738</v>
-      </c>
-      <c r="O1" s="2">
-        <v>43646</v>
-      </c>
-      <c r="P1" s="2">
-        <v>43555</v>
-      </c>
-      <c r="Q1" s="2">
-        <v>43465</v>
-      </c>
-      <c r="R1" s="2">
-        <v>43373</v>
-      </c>
-      <c r="S1" s="2">
-        <v>43281</v>
-      </c>
-      <c r="T1" s="2">
-        <v>43190</v>
-      </c>
-      <c r="U1" s="2">
-        <v>43100</v>
-      </c>
-      <c r="V1" s="2">
-        <v>43008</v>
-      </c>
-      <c r="W1" s="2">
-        <v>42916</v>
-      </c>
-      <c r="X1" s="2">
-        <v>42825</v>
-      </c>
-      <c r="Y1" s="2">
-        <v>42735</v>
-      </c>
-      <c r="Z1" s="2">
-        <v>42643</v>
-      </c>
-      <c r="AA1" s="2">
-        <v>42551</v>
-      </c>
-      <c r="AB1" s="2">
-        <v>42460</v>
-      </c>
-      <c r="AC1" s="2">
-        <v>42369</v>
-      </c>
-      <c r="AD1" s="2">
-        <v>42277</v>
-      </c>
-      <c r="AE1" s="2">
-        <v>42185</v>
-      </c>
-      <c r="AF1" s="2">
-        <v>42094</v>
-      </c>
-      <c r="AG1" s="2">
-        <v>42004</v>
-      </c>
-      <c r="AH1" s="2">
-        <v>41912</v>
-      </c>
-      <c r="AI1" s="2">
-        <v>41820</v>
-      </c>
-      <c r="AJ1" s="2">
-        <v>41729</v>
-      </c>
-      <c r="AK1" s="2">
-        <v>41639</v>
-      </c>
-      <c r="AL1" s="2">
-        <v>41547</v>
-      </c>
-      <c r="AM1" s="2">
-        <v>41455</v>
-      </c>
-      <c r="AN1" s="2">
-        <v>41364</v>
+        <v>40</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:40">
-      <c r="A2" t="s">
-        <v>1</v>
+    <row r="2" spans="1:41">
+      <c r="A2" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="B2">
+        <v>4126000000</v>
+      </c>
+      <c r="C2">
         <v>3400000000</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>3073000000</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>3093000000</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>3052000000</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>2990000000</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>3034000000</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>2954000000</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>2931000000</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>2826000000</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>3052000000</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>3269000000</v>
       </c>
-      <c r="M2">
+      <c r="N2">
         <v>3318000000</v>
       </c>
-      <c r="N2">
+      <c r="O2">
         <v>3260000000</v>
       </c>
-      <c r="O2">
+      <c r="P2">
         <v>3267000000</v>
       </c>
-      <c r="P2">
+      <c r="Q2">
         <v>3286000000</v>
       </c>
-      <c r="Q2">
+      <c r="R2">
         <v>3308000000</v>
       </c>
-      <c r="R2">
+      <c r="S2">
         <v>3233000000</v>
       </c>
-      <c r="S2">
+      <c r="T2">
         <v>3311000000</v>
       </c>
-      <c r="T2">
+      <c r="U2">
         <v>3270000000</v>
       </c>
-      <c r="U2">
+      <c r="V2">
         <v>3123000000</v>
       </c>
-      <c r="V2">
+      <c r="W2">
         <v>3004000000</v>
       </c>
-      <c r="W2">
+      <c r="X2">
         <v>2935000000</v>
       </c>
-      <c r="X2">
+      <c r="Y2">
         <v>2808000000</v>
       </c>
-      <c r="Y2">
+      <c r="Z2">
         <v>2632000000</v>
       </c>
-      <c r="Z2">
+      <c r="AA2">
         <v>2730000000</v>
       </c>
-      <c r="AA2">
+      <c r="AB2">
         <v>2672000000</v>
       </c>
-      <c r="AB2">
+      <c r="AC2">
         <v>2601000000</v>
       </c>
-      <c r="AC2">
+      <c r="AD2">
         <v>2647000000</v>
       </c>
-      <c r="AD2">
+      <c r="AE2">
         <v>2715000000</v>
       </c>
-      <c r="AE2">
+      <c r="AF2">
         <v>2702000000</v>
       </c>
-      <c r="AF2">
+      <c r="AG2">
         <v>2696000000</v>
       </c>
-      <c r="AG2">
+      <c r="AH2">
         <v>2711000000</v>
       </c>
-      <c r="AH2">
+      <c r="AI2">
         <v>2683000000</v>
       </c>
-      <c r="AI2">
+      <c r="AJ2">
         <v>2687000000</v>
       </c>
-      <c r="AJ2">
+      <c r="AK2">
         <v>2585000000</v>
       </c>
-      <c r="AK2">
+      <c r="AL2">
         <v>2543000000</v>
       </c>
-      <c r="AL2">
+      <c r="AM2">
         <v>2522000000</v>
       </c>
-      <c r="AM2">
+      <c r="AN2">
         <v>2664000000</v>
       </c>
-      <c r="AN2">
+      <c r="AO2">
         <v>2546000000</v>
       </c>
     </row>
-    <row r="3" spans="1:40">
-      <c r="A3" t="s">
-        <v>2</v>
+    <row r="3" spans="1:41">
+      <c r="A3" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="B3">
+        <v>0.3519</v>
+      </c>
+      <c r="C3">
         <v>0.1371</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>0.0129</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>0.0471</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>0.0413</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>0.058</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>-0.0059</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>-0.0964</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>-0.1166</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>-0.1331</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>-0.0658</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>-0.0052</v>
       </c>
-      <c r="M3">
+      <c r="N3">
         <v>0.003</v>
       </c>
-      <c r="N3">
+      <c r="O3">
         <v>0.008399999999999999</v>
       </c>
-      <c r="O3">
+      <c r="P3">
         <v>-0.0133</v>
       </c>
-      <c r="P3">
+      <c r="Q3">
         <v>0.0049</v>
       </c>
-      <c r="Q3">
+      <c r="R3">
         <v>0.0592</v>
       </c>
-      <c r="R3">
+      <c r="S3">
         <v>0.0762</v>
       </c>
-      <c r="S3">
+      <c r="T3">
         <v>0.1281</v>
       </c>
-      <c r="T3">
+      <c r="U3">
         <v>0.1645</v>
       </c>
-      <c r="U3">
+      <c r="V3">
         <v>0.1866</v>
       </c>
-      <c r="V3">
+      <c r="W3">
         <v>0.1004</v>
       </c>
-      <c r="W3">
+      <c r="X3">
         <v>0.0984</v>
       </c>
-      <c r="X3">
+      <c r="Y3">
         <v>0.0796</v>
       </c>
-      <c r="Y3">
+      <c r="Z3">
         <v>-0.0057</v>
       </c>
-      <c r="Z3">
+      <c r="AA3">
         <v>0.0055</v>
       </c>
-      <c r="AA3">
+      <c r="AB3">
         <v>-0.0111</v>
       </c>
-      <c r="AB3">
+      <c r="AC3">
         <v>-0.0352</v>
       </c>
-      <c r="AC3">
+      <c r="AD3">
         <v>-0.0236</v>
       </c>
-      <c r="AD3">
+      <c r="AE3">
         <v>0.0119</v>
       </c>
-      <c r="AE3">
+      <c r="AF3">
         <v>0.0056</v>
       </c>
-      <c r="AF3">
+      <c r="AG3">
         <v>0.0429</v>
       </c>
-      <c r="AG3">
+      <c r="AH3">
         <v>0.06610000000000001</v>
       </c>
-      <c r="AH3">
+      <c r="AI3">
         <v>0.0638</v>
       </c>
-      <c r="AI3">
+      <c r="AJ3">
         <v>0.0086</v>
       </c>
-      <c r="AJ3">
+      <c r="AK3">
         <v>0.0153</v>
       </c>
-      <c r="AK3">
+      <c r="AL3">
         <v>-0.0066</v>
       </c>
-      <c r="AL3">
+      <c r="AM3">
         <v>0.0223</v>
       </c>
-      <c r="AM3">
+      <c r="AN3">
         <v>0.0501</v>
       </c>
-      <c r="AN3">
+      <c r="AO3">
         <v>-0.0059</v>
       </c>
     </row>
-    <row r="4" spans="1:40">
-      <c r="A4" t="s">
-        <v>3</v>
+    <row r="4" spans="1:41">
+      <c r="A4" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="B4">
+        <v>971000000</v>
+      </c>
+      <c r="C4">
         <v>441000000</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>120000000</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>12000000</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>-1000000</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>4000000</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>14000000</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>42000000</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>115000000</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>204000000</v>
       </c>
-      <c r="M4">
+      <c r="N4">
         <v>270000000</v>
       </c>
-      <c r="N4">
+      <c r="O4">
         <v>357000000</v>
       </c>
-      <c r="O4">
+      <c r="P4">
         <v>394000000</v>
       </c>
-      <c r="P4">
+      <c r="Q4">
         <v>354000000</v>
       </c>
-      <c r="Q4">
+      <c r="R4">
         <v>285000000</v>
       </c>
-      <c r="R4">
+      <c r="S4">
         <v>244000000</v>
       </c>
-      <c r="S4">
+      <c r="T4">
         <v>248000000</v>
       </c>
-      <c r="T4">
+      <c r="U4">
         <v>214000000</v>
       </c>
-      <c r="U4">
+      <c r="V4">
         <v>181000000</v>
       </c>
-      <c r="V4">
+      <c r="W4">
         <v>158000000</v>
       </c>
-      <c r="W4">
+      <c r="X4">
         <v>125000000</v>
       </c>
-      <c r="X4">
+      <c r="Y4">
         <v>140000000</v>
       </c>
-      <c r="Y4">
+      <c r="Z4">
         <v>102000000</v>
       </c>
-      <c r="Z4">
+      <c r="AA4">
         <v>110000000</v>
       </c>
-      <c r="AA4">
+      <c r="AB4">
         <v>99000000</v>
       </c>
-      <c r="AB4">
+      <c r="AC4">
         <v>117000000</v>
       </c>
-      <c r="AC4">
+      <c r="AD4">
         <v>109000000</v>
       </c>
-      <c r="AD4">
+      <c r="AE4">
         <v>101000000</v>
       </c>
-      <c r="AE4">
+      <c r="AF4">
         <v>94000000</v>
       </c>
-      <c r="AF4">
+      <c r="AG4">
         <v>96000000</v>
       </c>
-      <c r="AG4">
+      <c r="AH4">
         <v>102000000</v>
       </c>
-      <c r="AH4">
+      <c r="AI4">
         <v>101000000</v>
       </c>
-      <c r="AI4">
+      <c r="AJ4">
         <v>89000000</v>
       </c>
-      <c r="AJ4">
+      <c r="AK4">
         <v>100000000</v>
       </c>
-      <c r="AK4">
+      <c r="AL4">
         <v>99000000</v>
       </c>
-      <c r="AL4">
+      <c r="AM4">
         <v>97000000</v>
       </c>
-      <c r="AM4">
+      <c r="AN4">
         <v>104000000</v>
       </c>
-      <c r="AN4">
+      <c r="AO4">
         <v>111000000</v>
       </c>
     </row>
-    <row r="5" spans="1:40">
-      <c r="A5" t="s">
-        <v>4</v>
+    <row r="5" spans="1:41">
+      <c r="A5" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="B5">
+        <v>3155000000</v>
+      </c>
+      <c r="C5">
         <v>2959000000</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>2953000000</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>3081000000</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>3053000000</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>2990000000</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>3034000000</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>2950000000</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>2917000000</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>2784000000</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <v>2937000000</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <v>3065000000</v>
       </c>
-      <c r="M5">
+      <c r="N5">
         <v>3048000000</v>
       </c>
-      <c r="N5">
+      <c r="O5">
         <v>2903000000</v>
       </c>
-      <c r="O5">
+      <c r="P5">
         <v>2873000000</v>
       </c>
-      <c r="P5">
+      <c r="Q5">
         <v>2932000000</v>
       </c>
-      <c r="Q5">
+      <c r="R5">
         <v>3023000000</v>
       </c>
-      <c r="R5">
+      <c r="S5">
         <v>2989000000</v>
       </c>
-      <c r="S5">
+      <c r="T5">
         <v>3063000000</v>
       </c>
-      <c r="T5">
+      <c r="U5">
         <v>3056000000</v>
       </c>
-      <c r="U5">
+      <c r="V5">
         <v>2942000000</v>
       </c>
-      <c r="V5">
+      <c r="W5">
         <v>2846000000</v>
       </c>
-      <c r="W5">
+      <c r="X5">
         <v>2810000000</v>
       </c>
-      <c r="X5">
+      <c r="Y5">
         <v>2668000000</v>
       </c>
-      <c r="Y5">
+      <c r="Z5">
         <v>2530000000</v>
       </c>
-      <c r="Z5">
+      <c r="AA5">
         <v>2620000000</v>
       </c>
-      <c r="AA5">
+      <c r="AB5">
         <v>2573000000</v>
       </c>
-      <c r="AB5">
+      <c r="AC5">
         <v>2484000000</v>
       </c>
-      <c r="AC5">
+      <c r="AD5">
         <v>2538000000</v>
       </c>
-      <c r="AD5">
+      <c r="AE5">
         <v>2614000000</v>
       </c>
-      <c r="AE5">
+      <c r="AF5">
         <v>2608000000</v>
       </c>
-      <c r="AF5">
+      <c r="AG5">
         <v>2600000000</v>
       </c>
-      <c r="AG5">
+      <c r="AH5">
         <v>2609000000</v>
       </c>
-      <c r="AH5">
+      <c r="AI5">
         <v>2582000000</v>
       </c>
-      <c r="AI5">
+      <c r="AJ5">
         <v>2598000000</v>
       </c>
-      <c r="AJ5">
+      <c r="AK5">
         <v>2485000000</v>
       </c>
-      <c r="AK5">
+      <c r="AL5">
         <v>2444000000</v>
       </c>
-      <c r="AL5">
+      <c r="AM5">
         <v>2425000000</v>
       </c>
-      <c r="AM5">
+      <c r="AN5">
         <v>2560000000</v>
       </c>
-      <c r="AN5">
+      <c r="AO5">
         <v>2435000000</v>
       </c>
     </row>
-    <row r="6" spans="1:40">
-      <c r="A6" t="s">
-        <v>5</v>
+    <row r="6" spans="1:41">
+      <c r="A6" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="B6">
+        <v>2176000000</v>
+      </c>
+      <c r="C6">
         <v>2039000000</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>2046000000</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>2257000000</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>2235000000</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>2034000000</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>2022000000</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>2255000000</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>2205000000</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>2029000000</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <v>2064000000</v>
       </c>
-      <c r="L6">
+      <c r="M6">
         <v>2222000000</v>
       </c>
-      <c r="M6">
+      <c r="N6">
         <v>2323000000</v>
       </c>
-      <c r="N6">
+      <c r="O6">
         <v>2096000000</v>
       </c>
-      <c r="O6">
+      <c r="P6">
         <v>2084000000</v>
       </c>
-      <c r="P6">
+      <c r="Q6">
         <v>2228000000</v>
       </c>
-      <c r="Q6">
+      <c r="R6">
         <v>2389000000</v>
       </c>
-      <c r="R6">
+      <c r="S6">
         <v>2049000000</v>
       </c>
-      <c r="S6">
+      <c r="T6">
         <v>2124000000</v>
       </c>
-      <c r="T6">
+      <c r="U6">
         <v>2218000000</v>
       </c>
-      <c r="U6">
+      <c r="V6">
         <v>1942000000</v>
       </c>
-      <c r="V6">
+      <c r="W6">
         <v>1937000000</v>
       </c>
-      <c r="W6">
+      <c r="X6">
         <v>1909000000</v>
       </c>
-      <c r="X6">
+      <c r="Y6">
         <v>2003000000</v>
       </c>
-      <c r="Y6">
+      <c r="Z6">
         <v>2088000000</v>
       </c>
-      <c r="Z6">
+      <c r="AA6">
         <v>1887000000</v>
       </c>
-      <c r="AA6">
+      <c r="AB6">
         <v>1795000000</v>
       </c>
-      <c r="AB6">
+      <c r="AC6">
         <v>1901000000</v>
       </c>
-      <c r="AC6">
+      <c r="AD6">
         <v>1802000000</v>
       </c>
-      <c r="AD6">
+      <c r="AE6">
         <v>1909000000</v>
       </c>
-      <c r="AE6">
+      <c r="AF6">
         <v>2084000000</v>
       </c>
-      <c r="AF6">
+      <c r="AG6">
         <v>2045000000</v>
       </c>
-      <c r="AG6">
+      <c r="AH6">
         <v>1949000000</v>
       </c>
-      <c r="AH6">
+      <c r="AI6">
         <v>1820000000</v>
       </c>
-      <c r="AI6">
+      <c r="AJ6">
         <v>1770000000</v>
       </c>
-      <c r="AJ6">
+      <c r="AK6">
         <v>1943000000</v>
       </c>
-      <c r="AK6">
+      <c r="AL6">
         <v>1762000000</v>
       </c>
-      <c r="AL6">
+      <c r="AM6">
         <v>1639000000</v>
       </c>
-      <c r="AM6">
+      <c r="AN6">
         <v>1714000000</v>
       </c>
-      <c r="AN6">
+      <c r="AO6">
         <v>1759000000</v>
       </c>
     </row>
-    <row r="7" spans="1:40">
-      <c r="A7" t="s">
-        <v>6</v>
+    <row r="7" spans="1:41">
+      <c r="A7" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="B7">
+        <v>920000000</v>
+      </c>
+      <c r="C7">
         <v>862000000</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>847000000</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>763000000</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>756000000</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>894000000</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>949000000</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>637000000</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>653000000</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>696000000</v>
       </c>
-      <c r="K7">
+      <c r="L7">
         <v>815000000</v>
       </c>
-      <c r="L7">
+      <c r="M7">
         <v>785000000</v>
       </c>
-      <c r="M7">
+      <c r="N7">
         <v>667000000</v>
       </c>
-      <c r="N7">
+      <c r="O7">
         <v>748000000</v>
       </c>
-      <c r="O7">
+      <c r="P7">
         <v>730000000</v>
       </c>
-      <c r="P7">
+      <c r="Q7">
         <v>644000000</v>
       </c>
-      <c r="Q7">
+      <c r="R7">
         <v>553000000</v>
       </c>
-      <c r="R7">
+      <c r="S7">
         <v>893000000</v>
       </c>
-      <c r="S7">
+      <c r="T7">
         <v>891000000</v>
       </c>
-      <c r="T7">
+      <c r="U7">
         <v>788000000</v>
       </c>
-      <c r="U7">
+      <c r="V7">
         <v>946000000</v>
       </c>
-      <c r="V7">
+      <c r="W7">
         <v>855000000</v>
       </c>
-      <c r="W7">
+      <c r="X7">
         <v>847000000</v>
       </c>
-      <c r="X7">
+      <c r="Y7">
         <v>613000000</v>
       </c>
-      <c r="Y7">
+      <c r="Z7">
         <v>388000000</v>
       </c>
-      <c r="Z7">
+      <c r="AA7">
         <v>678000000</v>
       </c>
-      <c r="AA7">
+      <c r="AB7">
         <v>729000000</v>
       </c>
-      <c r="AB7">
+      <c r="AC7">
         <v>534000000</v>
       </c>
-      <c r="AC7">
+      <c r="AD7">
         <v>686000000</v>
       </c>
-      <c r="AD7">
+      <c r="AE7">
         <v>657000000</v>
       </c>
-      <c r="AE7">
+      <c r="AF7">
         <v>475000000</v>
       </c>
-      <c r="AF7">
+      <c r="AG7">
         <v>505000000</v>
       </c>
-      <c r="AG7">
+      <c r="AH7">
         <v>600000000</v>
       </c>
-      <c r="AH7">
+      <c r="AI7">
         <v>708000000</v>
       </c>
-      <c r="AI7">
+      <c r="AJ7">
         <v>774000000</v>
       </c>
-      <c r="AJ7">
+      <c r="AK7">
         <v>488000000</v>
       </c>
-      <c r="AK7">
+      <c r="AL7">
         <v>628000000</v>
       </c>
-      <c r="AL7">
+      <c r="AM7">
         <v>733000000</v>
       </c>
-      <c r="AM7">
+      <c r="AN7">
         <v>792000000</v>
       </c>
-      <c r="AN7">
+      <c r="AO7">
         <v>623000000</v>
       </c>
     </row>
-    <row r="8" spans="1:40">
-      <c r="A8" t="s">
-        <v>7</v>
+    <row r="8" spans="1:41">
+      <c r="A8" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="B8">
+        <v>-31000000</v>
+      </c>
+      <c r="C8">
         <v>-13000000</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>-12000000</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>-9000000</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>-26000000</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>-18000000</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>-11000000</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>-10000000</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>-12000000</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <v>-15000000</v>
       </c>
-      <c r="K8">
+      <c r="L8">
         <v>-12000000</v>
       </c>
-      <c r="L8">
+      <c r="M8">
         <v>-11000000</v>
       </c>
-      <c r="M8">
+      <c r="N8">
         <v>-38000000</v>
       </c>
-      <c r="N8">
+      <c r="O8">
         <v>-27000000</v>
       </c>
-      <c r="O8">
+      <c r="P8">
         <v>-12000000</v>
       </c>
-      <c r="P8">
+      <c r="Q8">
         <v>-9000000</v>
       </c>
-      <c r="U8">
+      <c r="V8">
         <v>-204000000</v>
       </c>
-      <c r="V8">
+      <c r="W8">
         <v>-33000000</v>
       </c>
-      <c r="W8">
+      <c r="X8">
         <v>-71000000</v>
       </c>
-      <c r="X8">
+      <c r="Y8">
         <v>-29000000</v>
       </c>
-      <c r="Y8">
+      <c r="Z8">
         <v>-43000000</v>
       </c>
-      <c r="Z8">
+      <c r="AA8">
         <v>-42000000</v>
       </c>
-      <c r="AA8">
+      <c r="AB8">
         <v>-20000000</v>
       </c>
-      <c r="AB8">
+      <c r="AC8">
         <v>-104000000</v>
       </c>
-      <c r="AC8">
+      <c r="AD8">
         <v>-6000000</v>
       </c>
-      <c r="AD8">
+      <c r="AE8">
         <v>-10000000</v>
       </c>
-      <c r="AE8">
+      <c r="AF8">
         <v>-3000000</v>
       </c>
-      <c r="AF8">
+      <c r="AG8">
         <v>-6000000</v>
       </c>
-      <c r="AG8">
+      <c r="AH8">
         <v>-52000000</v>
       </c>
-      <c r="AH8">
+      <c r="AI8">
         <v>-20000000</v>
       </c>
-      <c r="AI8">
+      <c r="AJ8">
         <v>-28000000</v>
       </c>
-      <c r="AJ8">
+      <c r="AK8">
         <v>-33000000</v>
-      </c>
-      <c r="AK8">
-        <v>-30000000</v>
       </c>
       <c r="AL8">
         <v>-30000000</v>
@@ -1440,1243 +1575,1270 @@
         <v>-30000000</v>
       </c>
       <c r="AN8">
+        <v>-30000000</v>
+      </c>
+      <c r="AO8">
         <v>-14000000</v>
       </c>
     </row>
-    <row r="9" spans="1:40">
-      <c r="A9" t="s">
-        <v>8</v>
+    <row r="9" spans="1:41">
+      <c r="A9" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="B9">
+        <v>889000000</v>
+      </c>
+      <c r="C9">
         <v>849000000</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>835000000</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>754000000</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>730000000</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>876000000</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>938000000</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>627000000</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>641000000</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <v>681000000</v>
       </c>
-      <c r="K9">
+      <c r="L9">
         <v>803000000</v>
       </c>
-      <c r="L9">
+      <c r="M9">
         <v>774000000</v>
       </c>
-      <c r="M9">
+      <c r="N9">
         <v>638000000</v>
       </c>
-      <c r="N9">
+      <c r="O9">
         <v>721000000</v>
       </c>
-      <c r="O9">
+      <c r="P9">
         <v>718000000</v>
       </c>
-      <c r="P9">
+      <c r="Q9">
         <v>635000000</v>
       </c>
-      <c r="Q9">
+      <c r="R9">
         <v>529000000</v>
       </c>
-      <c r="R9">
+      <c r="S9">
         <v>893000000</v>
       </c>
-      <c r="S9">
+      <c r="T9">
         <v>891000000</v>
       </c>
-      <c r="T9">
+      <c r="U9">
         <v>788000000</v>
       </c>
-      <c r="U9">
+      <c r="V9">
         <v>813000000</v>
       </c>
-      <c r="V9">
+      <c r="W9">
         <v>822000000</v>
       </c>
-      <c r="W9">
+      <c r="X9">
         <v>776000000</v>
       </c>
-      <c r="X9">
+      <c r="Y9">
         <v>584000000</v>
       </c>
-      <c r="Y9">
+      <c r="Z9">
         <v>345000000</v>
       </c>
-      <c r="Z9">
+      <c r="AA9">
         <v>636000000</v>
       </c>
-      <c r="AA9">
+      <c r="AB9">
         <v>709000000</v>
       </c>
-      <c r="AB9">
+      <c r="AC9">
         <v>430000000</v>
       </c>
-      <c r="AC9">
+      <c r="AD9">
         <v>680000000</v>
       </c>
-      <c r="AD9">
+      <c r="AE9">
         <v>647000000</v>
       </c>
-      <c r="AE9">
+      <c r="AF9">
         <v>472000000</v>
       </c>
-      <c r="AF9">
+      <c r="AG9">
         <v>499000000</v>
       </c>
-      <c r="AG9">
+      <c r="AH9">
         <v>548000000</v>
       </c>
-      <c r="AH9">
+      <c r="AI9">
         <v>688000000</v>
       </c>
-      <c r="AI9">
+      <c r="AJ9">
         <v>746000000</v>
       </c>
-      <c r="AJ9">
+      <c r="AK9">
         <v>455000000</v>
       </c>
-      <c r="AK9">
+      <c r="AL9">
         <v>592000000</v>
       </c>
-      <c r="AL9">
+      <c r="AM9">
         <v>703000000</v>
       </c>
-      <c r="AM9">
+      <c r="AN9">
         <v>762000000</v>
       </c>
-      <c r="AN9">
+      <c r="AO9">
         <v>609000000</v>
       </c>
     </row>
-    <row r="10" spans="1:40">
-      <c r="A10" t="s">
-        <v>9</v>
+    <row r="10" spans="1:41">
+      <c r="A10" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="B10">
+        <v>156000000</v>
+      </c>
+      <c r="C10">
         <v>159000000</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <v>88000000</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>150000000</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>33000000</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>162000000</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>175000000</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>108000000</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>104000000</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <v>126000000</v>
       </c>
-      <c r="K10">
+      <c r="L10">
         <v>109000000</v>
       </c>
-      <c r="L10">
+      <c r="M10">
         <v>140000000</v>
       </c>
-      <c r="M10">
+      <c r="N10">
         <v>74000000</v>
       </c>
-      <c r="N10">
+      <c r="O10">
         <v>138000000</v>
       </c>
-      <c r="O10">
+      <c r="P10">
         <v>131000000</v>
       </c>
-      <c r="P10">
+      <c r="Q10">
         <v>127000000</v>
       </c>
-      <c r="Q10">
+      <c r="R10">
         <v>92000000</v>
       </c>
-      <c r="R10">
+      <c r="S10">
         <v>129000000</v>
       </c>
-      <c r="S10">
+      <c r="T10">
         <v>158000000</v>
       </c>
-      <c r="T10">
+      <c r="U10">
         <v>129000000</v>
       </c>
-      <c r="U10">
+      <c r="V10">
         <v>464000000</v>
       </c>
-      <c r="V10">
+      <c r="W10">
         <v>137000000</v>
       </c>
-      <c r="W10">
+      <c r="X10">
         <v>156000000</v>
       </c>
-      <c r="X10">
+      <c r="Y10">
         <v>82000000</v>
       </c>
-      <c r="Y10">
+      <c r="Z10">
         <v>-248000000</v>
       </c>
-      <c r="Z10">
+      <c r="AA10">
         <v>72000000</v>
       </c>
-      <c r="AA10">
+      <c r="AB10">
         <v>92000000</v>
       </c>
-      <c r="AB10">
+      <c r="AC10">
         <v>62000000</v>
       </c>
-      <c r="AC10">
+      <c r="AD10">
         <v>103000000</v>
       </c>
-      <c r="AD10">
+      <c r="AE10">
         <v>67000000</v>
       </c>
-      <c r="AE10">
+      <c r="AF10">
         <v>54000000</v>
       </c>
-      <c r="AF10">
+      <c r="AG10">
         <v>94000000</v>
       </c>
-      <c r="AG10">
+      <c r="AH10">
         <v>71000000</v>
       </c>
-      <c r="AH10">
+      <c r="AI10">
         <v>128000000</v>
       </c>
-      <c r="AI10">
+      <c r="AJ10">
         <v>124000000</v>
       </c>
-      <c r="AJ10">
+      <c r="AK10">
         <v>92000000</v>
       </c>
-      <c r="AK10">
+      <c r="AL10">
         <v>125000000</v>
       </c>
-      <c r="AL10">
+      <c r="AM10">
         <v>163000000</v>
       </c>
-      <c r="AM10">
+      <c r="AN10">
         <v>183000000</v>
       </c>
-      <c r="AN10">
+      <c r="AO10">
         <v>145000000</v>
       </c>
     </row>
-    <row r="11" spans="1:40">
-      <c r="A11" t="s">
-        <v>10</v>
+    <row r="11" spans="1:41">
+      <c r="A11" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="B11">
+        <v>733000000</v>
+      </c>
+      <c r="C11">
         <v>690000000</v>
       </c>
-      <c r="C11">
+      <c r="D11">
         <v>747000000</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>604000000</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>697000000</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>714000000</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>763000000</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>519000000</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>537000000</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <v>555000000</v>
       </c>
-      <c r="K11">
+      <c r="L11">
         <v>694000000</v>
       </c>
-      <c r="L11">
+      <c r="M11">
         <v>634000000</v>
       </c>
-      <c r="M11">
+      <c r="N11">
         <v>564000000</v>
       </c>
-      <c r="N11">
+      <c r="O11">
         <v>583000000</v>
       </c>
-      <c r="O11">
+      <c r="P11">
         <v>587000000</v>
       </c>
-      <c r="P11">
+      <c r="Q11">
         <v>508000000</v>
       </c>
-      <c r="Q11">
+      <c r="R11">
         <v>437000000</v>
       </c>
-      <c r="R11">
+      <c r="S11">
         <v>764000000</v>
       </c>
-      <c r="S11">
+      <c r="T11">
         <v>733000000</v>
       </c>
-      <c r="T11">
+      <c r="U11">
         <v>659000000</v>
       </c>
-      <c r="U11">
+      <c r="V11">
         <v>349000000</v>
       </c>
-      <c r="V11">
+      <c r="W11">
         <v>685000000</v>
       </c>
-      <c r="W11">
+      <c r="X11">
         <v>620000000</v>
       </c>
-      <c r="X11">
+      <c r="Y11">
         <v>502000000</v>
       </c>
-      <c r="Y11">
+      <c r="Z11">
         <v>593000000</v>
       </c>
-      <c r="Z11">
+      <c r="AA11">
         <v>564000000</v>
       </c>
-      <c r="AA11">
+      <c r="AB11">
         <v>617000000</v>
       </c>
-      <c r="AB11">
+      <c r="AC11">
         <v>368000000</v>
       </c>
-      <c r="AC11">
+      <c r="AD11">
         <v>577000000</v>
       </c>
-      <c r="AD11">
+      <c r="AE11">
         <v>580000000</v>
       </c>
-      <c r="AE11">
+      <c r="AF11">
         <v>418000000</v>
       </c>
-      <c r="AF11">
+      <c r="AG11">
         <v>405000000</v>
       </c>
-      <c r="AG11">
+      <c r="AH11">
         <v>477000000</v>
       </c>
-      <c r="AH11">
+      <c r="AI11">
         <v>560000000</v>
       </c>
-      <c r="AI11">
+      <c r="AJ11">
         <v>622000000</v>
       </c>
-      <c r="AJ11">
+      <c r="AK11">
         <v>363000000</v>
       </c>
-      <c r="AK11">
+      <c r="AL11">
         <v>467000000</v>
       </c>
-      <c r="AL11">
+      <c r="AM11">
         <v>540000000</v>
       </c>
-      <c r="AM11">
+      <c r="AN11">
         <v>579000000</v>
       </c>
-      <c r="AN11">
+      <c r="AO11">
         <v>464000000</v>
       </c>
     </row>
-    <row r="12" spans="1:40">
-      <c r="A12" t="s">
-        <v>11</v>
-      </c>
-      <c r="Y12">
+    <row r="12" spans="1:41">
+      <c r="A12" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z12">
         <v>-2000000</v>
       </c>
-      <c r="Z12">
+      <c r="AA12">
         <v>1000000</v>
       </c>
     </row>
-    <row r="13" spans="1:40">
-      <c r="A13" t="s">
-        <v>12</v>
+    <row r="13" spans="1:41">
+      <c r="A13" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="B13">
+        <v>37000000</v>
+      </c>
+      <c r="C13">
         <v>21000000</v>
       </c>
-      <c r="C13">
+      <c r="D13">
         <v>35000000</v>
       </c>
-      <c r="D13">
+      <c r="E13">
         <v>21000000</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>35000000</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>21000000</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>35000000</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>30000000</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <v>39000000</v>
       </c>
-      <c r="J13">
+      <c r="K13">
         <v>38000000</v>
       </c>
-      <c r="K13">
+      <c r="L13">
         <v>32000000</v>
       </c>
-      <c r="L13">
+      <c r="M13">
         <v>54000000</v>
       </c>
-      <c r="M13">
+      <c r="N13">
         <v>72000000</v>
       </c>
-      <c r="N13">
+      <c r="O13">
         <v>55000000</v>
       </c>
-      <c r="O13">
+      <c r="P13">
         <v>50000000</v>
       </c>
-      <c r="P13">
+      <c r="Q13">
         <v>56000000</v>
       </c>
-      <c r="Q13">
+      <c r="R13">
         <v>41000000</v>
       </c>
-      <c r="R13">
+      <c r="S13">
         <v>56000000</v>
       </c>
-      <c r="S13">
+      <c r="T13">
         <v>36000000</v>
       </c>
-      <c r="T13">
+      <c r="U13">
         <v>56000000</v>
       </c>
-      <c r="U13">
+      <c r="V13">
         <v>36000000</v>
       </c>
-      <c r="V13">
+      <c r="W13">
         <v>56000000</v>
       </c>
-      <c r="W13">
+      <c r="X13">
         <v>36000000</v>
       </c>
-      <c r="X13">
+      <c r="Y13">
         <v>56000000</v>
       </c>
-      <c r="Y13">
+      <c r="Z13">
         <v>36000000</v>
       </c>
-      <c r="Z13">
+      <c r="AA13">
         <v>56000000</v>
       </c>
-      <c r="AA13">
+      <c r="AB13">
         <v>34000000</v>
       </c>
-      <c r="AB13">
+      <c r="AC13">
         <v>49000000</v>
       </c>
-      <c r="AC13">
+      <c r="AD13">
         <v>29000000</v>
       </c>
-      <c r="AD13">
+      <c r="AE13">
         <v>42000000</v>
       </c>
-      <c r="AE13">
+      <c r="AF13">
         <v>29000000</v>
       </c>
-      <c r="AF13">
+      <c r="AG13">
         <v>32000000</v>
       </c>
-      <c r="AG13">
+      <c r="AH13">
         <v>19000000</v>
       </c>
-      <c r="AH13">
+      <c r="AI13">
         <v>18000000</v>
       </c>
-      <c r="AI13">
+      <c r="AJ13">
         <v>20000000</v>
       </c>
-      <c r="AJ13">
+      <c r="AK13">
         <v>7000000</v>
       </c>
-      <c r="AK13">
+      <c r="AL13">
         <v>8000000</v>
       </c>
-      <c r="AL13">
+      <c r="AM13">
         <v>9000000</v>
       </c>
-      <c r="AM13">
+      <c r="AN13">
         <v>8000000</v>
       </c>
-      <c r="AN13">
+      <c r="AO13">
         <v>9000000</v>
       </c>
     </row>
-    <row r="14" spans="1:40">
-      <c r="A14" t="s">
-        <v>13</v>
+    <row r="14" spans="1:41">
+      <c r="A14" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="B14">
+        <v>696000000</v>
+      </c>
+      <c r="C14">
         <v>669000000</v>
       </c>
-      <c r="C14">
+      <c r="D14">
         <v>712000000</v>
       </c>
-      <c r="D14">
+      <c r="E14">
         <v>583000000</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <v>662000000</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>693000000</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>728000000</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>489000000</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <v>498000000</v>
       </c>
-      <c r="J14">
+      <c r="K14">
         <v>517000000</v>
       </c>
-      <c r="K14">
+      <c r="L14">
         <v>662000000</v>
       </c>
-      <c r="L14">
+      <c r="M14">
         <v>580000000</v>
       </c>
-      <c r="M14">
+      <c r="N14">
         <v>492000000</v>
       </c>
-      <c r="N14">
+      <c r="O14">
         <v>528000000</v>
       </c>
-      <c r="O14">
+      <c r="P14">
         <v>537000000</v>
       </c>
-      <c r="P14">
+      <c r="Q14">
         <v>452000000</v>
       </c>
-      <c r="Q14">
+      <c r="R14">
         <v>396000000</v>
       </c>
-      <c r="R14">
+      <c r="S14">
         <v>708000000</v>
       </c>
-      <c r="S14">
+      <c r="T14">
         <v>697000000</v>
       </c>
-      <c r="T14">
+      <c r="U14">
         <v>603000000</v>
       </c>
-      <c r="U14">
+      <c r="V14">
         <v>313000000</v>
       </c>
-      <c r="V14">
+      <c r="W14">
         <v>629000000</v>
       </c>
-      <c r="W14">
+      <c r="X14">
         <v>584000000</v>
       </c>
-      <c r="X14">
+      <c r="Y14">
         <v>446000000</v>
       </c>
-      <c r="Y14">
+      <c r="Z14">
         <v>557000000</v>
       </c>
-      <c r="Z14">
+      <c r="AA14">
         <v>507000000</v>
       </c>
-      <c r="AA14">
+      <c r="AB14">
         <v>585000000</v>
       </c>
-      <c r="AB14">
+      <c r="AC14">
         <v>319000000</v>
       </c>
-      <c r="AC14">
+      <c r="AD14">
         <v>547000000</v>
       </c>
-      <c r="AD14">
+      <c r="AE14">
         <v>539000000</v>
       </c>
-      <c r="AE14">
+      <c r="AF14">
         <v>389000000</v>
       </c>
-      <c r="AF14">
+      <c r="AG14">
         <v>373000000</v>
       </c>
-      <c r="AG14">
+      <c r="AH14">
         <v>458000000</v>
       </c>
-      <c r="AH14">
+      <c r="AI14">
         <v>542000000</v>
       </c>
-      <c r="AI14">
+      <c r="AJ14">
         <v>602000000</v>
       </c>
-      <c r="AJ14">
+      <c r="AK14">
         <v>356000000</v>
       </c>
-      <c r="AK14">
+      <c r="AL14">
         <v>459000000</v>
       </c>
-      <c r="AL14">
+      <c r="AM14">
         <v>531000000</v>
       </c>
-      <c r="AM14">
+      <c r="AN14">
         <v>571000000</v>
       </c>
-      <c r="AN14">
+      <c r="AO14">
         <v>455000000</v>
       </c>
     </row>
-    <row r="15" spans="1:40">
-      <c r="A15" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15">
+    <row r="15" spans="1:41">
+      <c r="A15" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C15">
         <v>1.82</v>
       </c>
-      <c r="C15">
+      <c r="D15">
         <v>1.94</v>
       </c>
-      <c r="D15">
+      <c r="E15">
         <v>1.59</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <v>1.81</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>1.99</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>2.11</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <v>1.39</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <v>1.41</v>
       </c>
-      <c r="J15">
+      <c r="K15">
         <v>1.47</v>
       </c>
-      <c r="K15">
+      <c r="L15">
         <v>1.88</v>
       </c>
-      <c r="L15">
+      <c r="M15">
         <v>1.62</v>
       </c>
-      <c r="M15">
+      <c r="N15">
         <v>1.75</v>
-      </c>
-      <c r="N15">
-        <v>1.44</v>
       </c>
       <c r="O15">
         <v>1.44</v>
       </c>
       <c r="P15">
+        <v>1.44</v>
+      </c>
+      <c r="Q15">
         <v>1.18</v>
       </c>
-      <c r="Q15">
+      <c r="R15">
         <v>1.05</v>
       </c>
-      <c r="R15">
+      <c r="S15">
         <v>1.89</v>
       </c>
-      <c r="S15">
+      <c r="T15">
         <v>1.91</v>
       </c>
-      <c r="T15">
+      <c r="U15">
         <v>1.65</v>
       </c>
-      <c r="U15">
+      <c r="V15">
         <v>0.9</v>
       </c>
-      <c r="V15">
+      <c r="W15">
         <v>1.69</v>
       </c>
-      <c r="W15">
+      <c r="X15">
         <v>1.53</v>
       </c>
-      <c r="X15">
+      <c r="Y15">
         <v>1.15</v>
       </c>
-      <c r="Y15">
+      <c r="Z15">
         <v>1.45</v>
       </c>
-      <c r="Z15">
+      <c r="AA15">
         <v>1.31</v>
       </c>
-      <c r="AA15">
+      <c r="AB15">
         <v>1.48</v>
       </c>
-      <c r="AB15">
+      <c r="AC15">
         <v>0.8</v>
       </c>
-      <c r="AC15">
+      <c r="AD15">
         <v>1.36</v>
       </c>
-      <c r="AD15">
+      <c r="AE15">
         <v>1.34</v>
       </c>
-      <c r="AE15">
+      <c r="AF15">
         <v>0.96</v>
       </c>
-      <c r="AF15">
+      <c r="AG15">
         <v>0.91</v>
       </c>
-      <c r="AG15">
+      <c r="AH15">
         <v>1.26</v>
       </c>
-      <c r="AH15">
+      <c r="AI15">
         <v>1.28</v>
       </c>
-      <c r="AI15">
+      <c r="AJ15">
         <v>1.41</v>
       </c>
-      <c r="AJ15">
+      <c r="AK15">
         <v>0.83</v>
       </c>
-      <c r="AK15">
+      <c r="AL15">
         <v>1.25</v>
       </c>
-      <c r="AL15">
+      <c r="AM15">
         <v>1.2</v>
       </c>
-      <c r="AM15">
+      <c r="AN15">
         <v>1.26</v>
       </c>
-      <c r="AN15">
+      <c r="AO15">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:40">
-      <c r="A16" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16">
+    <row r="16" spans="1:41">
+      <c r="A16" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C16">
         <v>1.8</v>
       </c>
-      <c r="C16">
+      <c r="D16">
         <v>1.91</v>
       </c>
-      <c r="D16">
+      <c r="E16">
         <v>1.57</v>
       </c>
-      <c r="E16">
+      <c r="F16">
         <v>1.78</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <v>1.96</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <v>2.07</v>
       </c>
-      <c r="H16">
+      <c r="I16">
         <v>1.37</v>
       </c>
-      <c r="I16">
+      <c r="J16">
         <v>1.39</v>
       </c>
-      <c r="J16">
+      <c r="K16">
         <v>1.45</v>
       </c>
-      <c r="K16">
+      <c r="L16">
         <v>1.86</v>
       </c>
-      <c r="L16">
+      <c r="M16">
         <v>1.62</v>
       </c>
-      <c r="M16">
+      <c r="N16">
         <v>1.73</v>
-      </c>
-      <c r="N16">
-        <v>1.42</v>
       </c>
       <c r="O16">
         <v>1.42</v>
       </c>
       <c r="P16">
+        <v>1.42</v>
+      </c>
+      <c r="Q16">
         <v>1.18</v>
       </c>
-      <c r="Q16">
+      <c r="R16">
         <v>1.04</v>
       </c>
-      <c r="R16">
+      <c r="S16">
         <v>1.87</v>
       </c>
-      <c r="S16">
+      <c r="T16">
         <v>1.88</v>
       </c>
-      <c r="T16">
+      <c r="U16">
         <v>1.62</v>
       </c>
-      <c r="U16">
+      <c r="V16">
         <v>0.89</v>
       </c>
-      <c r="V16">
+      <c r="W16">
         <v>1.66</v>
       </c>
-      <c r="W16">
+      <c r="X16">
         <v>1.53</v>
       </c>
-      <c r="X16">
+      <c r="Y16">
         <v>1.15</v>
       </c>
-      <c r="Y16">
+      <c r="Z16">
         <v>1.43</v>
       </c>
-      <c r="Z16">
+      <c r="AA16">
         <v>1.29</v>
       </c>
-      <c r="AA16">
+      <c r="AB16">
         <v>1.47</v>
       </c>
-      <c r="AB16">
+      <c r="AC16">
         <v>0.79</v>
       </c>
-      <c r="AC16">
+      <c r="AD16">
         <v>1.34</v>
       </c>
-      <c r="AD16">
+      <c r="AE16">
         <v>1.32</v>
       </c>
-      <c r="AE16">
+      <c r="AF16">
         <v>0.9399999999999999</v>
       </c>
-      <c r="AF16">
+      <c r="AG16">
         <v>0.9</v>
       </c>
-      <c r="AG16">
+      <c r="AH16">
         <v>1.24</v>
       </c>
-      <c r="AH16">
+      <c r="AI16">
         <v>1.26</v>
       </c>
-      <c r="AI16">
+      <c r="AJ16">
         <v>1.38</v>
       </c>
-      <c r="AJ16">
+      <c r="AK16">
         <v>0.8100000000000001</v>
       </c>
-      <c r="AK16">
+      <c r="AL16">
         <v>1.22</v>
       </c>
-      <c r="AL16">
+      <c r="AM16">
         <v>1.17</v>
       </c>
-      <c r="AM16">
+      <c r="AN16">
         <v>1.24</v>
       </c>
-      <c r="AN16">
+      <c r="AO16">
         <v>0.98</v>
       </c>
     </row>
-    <row r="17" spans="1:40">
-      <c r="A17" t="s">
-        <v>16</v>
+    <row r="17" spans="1:41">
+      <c r="A17" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="B17">
+        <v>359200000</v>
+      </c>
+      <c r="C17">
         <v>367789000</v>
       </c>
-      <c r="C17">
+      <c r="D17">
         <v>367375000</v>
       </c>
-      <c r="D17">
+      <c r="E17">
         <v>366542000</v>
       </c>
-      <c r="E17">
+      <c r="F17">
         <v>352565000</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <v>347718000</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <v>345889000</v>
       </c>
-      <c r="H17">
+      <c r="I17">
         <v>350743000</v>
       </c>
-      <c r="I17">
+      <c r="J17">
         <v>352865000</v>
       </c>
-      <c r="J17">
+      <c r="K17">
         <v>352586000</v>
       </c>
-      <c r="K17">
+      <c r="L17">
         <v>352157000</v>
       </c>
-      <c r="L17">
+      <c r="M17">
         <v>353746000</v>
       </c>
-      <c r="M17">
+      <c r="N17">
         <v>369911000</v>
       </c>
-      <c r="N17">
+      <c r="O17">
         <v>366732000</v>
       </c>
-      <c r="O17">
+      <c r="P17">
         <v>373773000</v>
       </c>
-      <c r="P17">
+      <c r="Q17">
         <v>377915000</v>
       </c>
-      <c r="Q17">
+      <c r="R17">
         <v>371983000</v>
       </c>
-      <c r="R17">
+      <c r="S17">
         <v>374963000</v>
       </c>
-      <c r="S17">
+      <c r="T17">
         <v>365619000</v>
       </c>
-      <c r="T17">
+      <c r="U17">
         <v>367439000</v>
       </c>
-      <c r="U17">
+      <c r="V17">
         <v>374793000</v>
       </c>
-      <c r="V17">
+      <c r="W17">
         <v>372765000</v>
       </c>
-      <c r="W17">
+      <c r="X17">
         <v>375395000</v>
       </c>
-      <c r="X17">
+      <c r="Y17">
         <v>381224000</v>
       </c>
-      <c r="Y17">
+      <c r="Z17">
         <v>391485000</v>
       </c>
-      <c r="Z17">
+      <c r="AA17">
         <v>388358000</v>
       </c>
-      <c r="AA17">
+      <c r="AB17">
         <v>394160000</v>
       </c>
-      <c r="AB17">
+      <c r="AC17">
         <v>399421000</v>
       </c>
-      <c r="AC17">
+      <c r="AD17">
         <v>407856000</v>
       </c>
-      <c r="AD17">
+      <c r="AE17">
         <v>406612000</v>
       </c>
-      <c r="AE17">
+      <c r="AF17">
         <v>410674000</v>
       </c>
-      <c r="AF17">
+      <c r="AG17">
         <v>412225000</v>
       </c>
-      <c r="AG17">
+      <c r="AH17">
         <v>424223000</v>
       </c>
-      <c r="AH17">
+      <c r="AI17">
         <v>421974000</v>
       </c>
-      <c r="AI17">
+      <c r="AJ17">
         <v>427824000</v>
       </c>
-      <c r="AJ17">
+      <c r="AK17">
         <v>430621000</v>
       </c>
-      <c r="AK17">
+      <c r="AL17">
         <v>446245000</v>
       </c>
-      <c r="AL17">
+      <c r="AM17">
         <v>442860000</v>
       </c>
-      <c r="AM17">
+      <c r="AN17">
         <v>452176000</v>
       </c>
-      <c r="AN17">
+      <c r="AO17">
         <v>454315000</v>
       </c>
     </row>
-    <row r="18" spans="1:40">
-      <c r="A18" t="s">
-        <v>17</v>
+    <row r="18" spans="1:41">
+      <c r="A18" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="B18">
+        <v>363923000</v>
+      </c>
+      <c r="C18">
         <v>372418000</v>
       </c>
-      <c r="C18">
+      <c r="D18">
         <v>372123000</v>
       </c>
-      <c r="D18">
+      <c r="E18">
         <v>372037000</v>
       </c>
-      <c r="E18">
+      <c r="F18">
         <v>357962000</v>
       </c>
-      <c r="F18">
+      <c r="G18">
         <v>353494000</v>
       </c>
-      <c r="G18">
+      <c r="H18">
         <v>351582000</v>
       </c>
-      <c r="H18">
+      <c r="I18">
         <v>355690000</v>
       </c>
-      <c r="I18">
+      <c r="J18">
         <v>357106000</v>
       </c>
-      <c r="J18">
+      <c r="K18">
         <v>357168000</v>
       </c>
-      <c r="K18">
+      <c r="L18">
         <v>356413000</v>
       </c>
-      <c r="L18">
+      <c r="M18">
         <v>357993000</v>
       </c>
-      <c r="M18">
+      <c r="N18">
         <v>373666000</v>
       </c>
-      <c r="N18">
+      <c r="O18">
         <v>370595000</v>
       </c>
-      <c r="O18">
+      <c r="P18">
         <v>377577000</v>
       </c>
-      <c r="P18">
+      <c r="Q18">
         <v>381703000</v>
       </c>
-      <c r="Q18">
+      <c r="R18">
         <v>376476000</v>
       </c>
-      <c r="R18">
+      <c r="S18">
         <v>379383000</v>
       </c>
-      <c r="S18">
+      <c r="T18">
         <v>370410000</v>
       </c>
-      <c r="T18">
+      <c r="U18">
         <v>372619000</v>
       </c>
-      <c r="U18">
+      <c r="V18">
         <v>380213000</v>
       </c>
-      <c r="V18">
+      <c r="W18">
         <v>378518000</v>
       </c>
-      <c r="W18">
+      <c r="X18">
         <v>380915000</v>
       </c>
-      <c r="X18">
+      <c r="Y18">
         <v>386417000</v>
       </c>
-      <c r="Y18">
+      <c r="Z18">
         <v>396090000</v>
       </c>
-      <c r="Z18">
+      <c r="AA18">
         <v>393212000</v>
       </c>
-      <c r="AA18">
+      <c r="AB18">
         <v>398847000</v>
       </c>
-      <c r="AB18">
+      <c r="AC18">
         <v>403615000</v>
       </c>
-      <c r="AC18">
+      <c r="AD18">
         <v>413638000</v>
       </c>
-      <c r="AD18">
+      <c r="AE18">
         <v>412167000</v>
       </c>
-      <c r="AE18">
+      <c r="AF18">
         <v>416712000</v>
       </c>
-      <c r="AF18">
+      <c r="AG18">
         <v>418750000</v>
       </c>
-      <c r="AG18">
+      <c r="AH18">
         <v>432007000</v>
       </c>
-      <c r="AH18">
+      <c r="AI18">
         <v>429736000</v>
       </c>
-      <c r="AI18">
+      <c r="AJ18">
         <v>435320000</v>
       </c>
-      <c r="AJ18">
+      <c r="AK18">
         <v>438815000</v>
       </c>
-      <c r="AK18">
+      <c r="AL18">
         <v>455155000</v>
       </c>
-      <c r="AL18">
+      <c r="AM18">
         <v>452154000</v>
       </c>
-      <c r="AM18">
+      <c r="AN18">
         <v>461040000</v>
       </c>
-      <c r="AN18">
+      <c r="AO18">
         <v>462751000</v>
       </c>
     </row>
-    <row r="19" spans="1:40">
-      <c r="A19" t="s">
-        <v>18</v>
+    <row r="19" spans="1:41">
+      <c r="A19" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="B19">
+        <v>0.7647</v>
+      </c>
+      <c r="C19">
         <v>0.8703</v>
       </c>
-      <c r="C19">
+      <c r="D19">
         <v>0.961</v>
       </c>
-      <c r="D19">
+      <c r="E19">
         <v>0.9961</v>
       </c>
-      <c r="E19">
+      <c r="F19">
         <v>1.0003</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="H19">
+        <v>1</v>
+      </c>
+      <c r="I19">
         <v>0.9986</v>
       </c>
-      <c r="I19">
+      <c r="J19">
         <v>0.9952</v>
       </c>
-      <c r="J19">
+      <c r="K19">
         <v>0.9851</v>
       </c>
-      <c r="K19">
+      <c r="L19">
         <v>0.9623</v>
       </c>
-      <c r="L19">
+      <c r="M19">
         <v>0.9376</v>
       </c>
-      <c r="M19">
+      <c r="N19">
         <v>0.9186</v>
       </c>
-      <c r="N19">
+      <c r="O19">
         <v>0.8905</v>
       </c>
-      <c r="O19">
+      <c r="P19">
         <v>0.8794</v>
       </c>
-      <c r="P19">
+      <c r="Q19">
         <v>0.8923</v>
       </c>
-      <c r="Q19">
+      <c r="R19">
         <v>0.9137999999999999</v>
       </c>
-      <c r="R19">
+      <c r="S19">
         <v>0.9245</v>
       </c>
-      <c r="S19">
+      <c r="T19">
         <v>0.9251</v>
       </c>
-      <c r="T19">
+      <c r="U19">
         <v>0.9346</v>
       </c>
-      <c r="U19">
+      <c r="V19">
         <v>0.9419999999999999</v>
       </c>
-      <c r="V19">
+      <c r="W19">
         <v>0.9474</v>
       </c>
-      <c r="W19">
+      <c r="X19">
         <v>0.9574</v>
       </c>
-      <c r="X19">
+      <c r="Y19">
         <v>0.9500999999999999</v>
       </c>
-      <c r="Y19">
+      <c r="Z19">
         <v>0.9612000000000001</v>
       </c>
-      <c r="Z19">
+      <c r="AA19">
         <v>0.9597</v>
       </c>
-      <c r="AA19">
+      <c r="AB19">
         <v>0.9629</v>
       </c>
-      <c r="AB19">
+      <c r="AC19">
         <v>0.955</v>
       </c>
-      <c r="AC19">
+      <c r="AD19">
         <v>0.9588</v>
       </c>
-      <c r="AD19">
+      <c r="AE19">
         <v>0.9628</v>
       </c>
-      <c r="AE19">
+      <c r="AF19">
         <v>0.9651999999999999</v>
       </c>
-      <c r="AF19">
+      <c r="AG19">
         <v>0.9644</v>
-      </c>
-      <c r="AG19">
-        <v>0.9624</v>
       </c>
       <c r="AH19">
         <v>0.9624</v>
       </c>
       <c r="AI19">
+        <v>0.9624</v>
+      </c>
+      <c r="AJ19">
         <v>0.9669</v>
       </c>
-      <c r="AJ19">
+      <c r="AK19">
         <v>0.9613</v>
       </c>
-      <c r="AK19">
+      <c r="AL19">
         <v>0.9611</v>
       </c>
-      <c r="AL19">
+      <c r="AM19">
         <v>0.9615</v>
       </c>
-      <c r="AM19">
+      <c r="AN19">
         <v>0.961</v>
       </c>
-      <c r="AN19">
+      <c r="AO19">
         <v>0.9564</v>
       </c>
     </row>
-    <row r="20" spans="1:40">
-      <c r="A20" t="s">
-        <v>19</v>
+    <row r="20" spans="1:41">
+      <c r="A20" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -2795,1141 +2957,1168 @@
       <c r="AN20">
         <v>0</v>
       </c>
+      <c r="AO20">
+        <v>0</v>
+      </c>
     </row>
-    <row r="21" spans="1:40">
-      <c r="A21" t="s">
-        <v>20</v>
+    <row r="21" spans="1:41">
+      <c r="A21" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="B21">
+        <v>0.2155</v>
+      </c>
+      <c r="C21">
         <v>0.2497</v>
       </c>
-      <c r="C21">
+      <c r="D21">
         <v>0.2717</v>
       </c>
-      <c r="D21">
+      <c r="E21">
         <v>0.2438</v>
       </c>
-      <c r="E21">
+      <c r="F21">
         <v>0.2392</v>
       </c>
-      <c r="F21">
+      <c r="G21">
         <v>0.293</v>
       </c>
-      <c r="G21">
+      <c r="H21">
         <v>0.3092</v>
       </c>
-      <c r="H21">
+      <c r="I21">
         <v>0.2123</v>
       </c>
-      <c r="I21">
+      <c r="J21">
         <v>0.2187</v>
       </c>
-      <c r="J21">
+      <c r="K21">
         <v>0.241</v>
       </c>
-      <c r="K21">
+      <c r="L21">
         <v>0.2631</v>
       </c>
-      <c r="L21">
+      <c r="M21">
         <v>0.2368</v>
       </c>
-      <c r="M21">
+      <c r="N21">
         <v>0.1923</v>
       </c>
-      <c r="N21">
+      <c r="O21">
         <v>0.2212</v>
       </c>
-      <c r="O21">
+      <c r="P21">
         <v>0.2198</v>
       </c>
-      <c r="P21">
+      <c r="Q21">
         <v>0.1932</v>
       </c>
-      <c r="Q21">
+      <c r="R21">
         <v>0.1599</v>
       </c>
-      <c r="R21">
+      <c r="S21">
         <v>0.2762</v>
       </c>
-      <c r="S21">
+      <c r="T21">
         <v>0.2691</v>
       </c>
-      <c r="T21">
+      <c r="U21">
         <v>0.241</v>
       </c>
-      <c r="U21">
+      <c r="V21">
         <v>0.2603</v>
       </c>
-      <c r="V21">
+      <c r="W21">
         <v>0.2736</v>
       </c>
-      <c r="W21">
+      <c r="X21">
         <v>0.2644</v>
       </c>
-      <c r="X21">
+      <c r="Y21">
         <v>0.208</v>
       </c>
-      <c r="Y21">
+      <c r="Z21">
         <v>0.1311</v>
       </c>
-      <c r="Z21">
+      <c r="AA21">
         <v>0.233</v>
       </c>
-      <c r="AA21">
+      <c r="AB21">
         <v>0.2653</v>
       </c>
-      <c r="AB21">
+      <c r="AC21">
         <v>0.1653</v>
       </c>
-      <c r="AC21">
+      <c r="AD21">
         <v>0.2569</v>
       </c>
-      <c r="AD21">
+      <c r="AE21">
         <v>0.2383</v>
       </c>
-      <c r="AE21">
+      <c r="AF21">
         <v>0.1747</v>
       </c>
-      <c r="AF21">
+      <c r="AG21">
         <v>0.1851</v>
       </c>
-      <c r="AG21">
+      <c r="AH21">
         <v>0.2021</v>
       </c>
-      <c r="AH21">
+      <c r="AI21">
         <v>0.2564</v>
       </c>
-      <c r="AI21">
+      <c r="AJ21">
         <v>0.2776</v>
       </c>
-      <c r="AJ21">
+      <c r="AK21">
         <v>0.176</v>
       </c>
-      <c r="AK21">
+      <c r="AL21">
         <v>0.2328</v>
       </c>
-      <c r="AL21">
+      <c r="AM21">
         <v>0.2787</v>
       </c>
-      <c r="AM21">
+      <c r="AN21">
         <v>0.286</v>
       </c>
-      <c r="AN21">
+      <c r="AO21">
         <v>0.2392</v>
       </c>
     </row>
-    <row r="22" spans="1:40">
-      <c r="A22" t="s">
-        <v>21</v>
+    <row r="22" spans="1:41">
+      <c r="A22" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="B22">
+        <v>0.1687</v>
+      </c>
+      <c r="C22">
         <v>0.1968</v>
       </c>
-      <c r="C22">
+      <c r="D22">
         <v>0.2317</v>
       </c>
-      <c r="D22">
+      <c r="E22">
         <v>0.1885</v>
       </c>
-      <c r="E22">
+      <c r="F22">
         <v>0.2169</v>
       </c>
-      <c r="F22">
+      <c r="G22">
         <v>0.2318</v>
       </c>
-      <c r="G22">
+      <c r="H22">
         <v>0.2399</v>
       </c>
-      <c r="H22">
+      <c r="I22">
         <v>0.1655</v>
       </c>
-      <c r="I22">
+      <c r="J22">
         <v>0.1699</v>
       </c>
-      <c r="J22">
+      <c r="K22">
         <v>0.1829</v>
       </c>
-      <c r="K22">
+      <c r="L22">
         <v>0.2169</v>
       </c>
-      <c r="L22">
+      <c r="M22">
         <v>0.1774</v>
       </c>
-      <c r="M22">
+      <c r="N22">
         <v>0.1483</v>
       </c>
-      <c r="N22">
+      <c r="O22">
         <v>0.162</v>
       </c>
-      <c r="O22">
+      <c r="P22">
         <v>0.1644</v>
       </c>
-      <c r="P22">
+      <c r="Q22">
         <v>0.1376</v>
       </c>
-      <c r="Q22">
+      <c r="R22">
         <v>0.1197</v>
       </c>
-      <c r="R22">
+      <c r="S22">
         <v>0.219</v>
       </c>
-      <c r="S22">
+      <c r="T22">
         <v>0.2105</v>
       </c>
-      <c r="T22">
+      <c r="U22">
         <v>0.1844</v>
       </c>
-      <c r="U22">
+      <c r="V22">
         <v>0.1002</v>
       </c>
-      <c r="V22">
+      <c r="W22">
         <v>0.2094</v>
       </c>
-      <c r="W22">
+      <c r="X22">
         <v>0.199</v>
       </c>
-      <c r="X22">
+      <c r="Y22">
         <v>0.1588</v>
       </c>
-      <c r="Y22">
+      <c r="Z22">
         <v>0.2116</v>
       </c>
-      <c r="Z22">
+      <c r="AA22">
         <v>0.1857</v>
       </c>
-      <c r="AA22">
+      <c r="AB22">
         <v>0.2189</v>
       </c>
-      <c r="AB22">
+      <c r="AC22">
         <v>0.1226</v>
       </c>
-      <c r="AC22">
+      <c r="AD22">
         <v>0.2066</v>
       </c>
-      <c r="AD22">
+      <c r="AE22">
         <v>0.1985</v>
       </c>
-      <c r="AE22">
+      <c r="AF22">
         <v>0.144</v>
       </c>
-      <c r="AF22">
+      <c r="AG22">
         <v>0.1384</v>
       </c>
-      <c r="AG22">
+      <c r="AH22">
         <v>0.1689</v>
       </c>
-      <c r="AH22">
+      <c r="AI22">
         <v>0.202</v>
       </c>
-      <c r="AI22">
+      <c r="AJ22">
         <v>0.224</v>
       </c>
-      <c r="AJ22">
+      <c r="AK22">
         <v>0.1377</v>
       </c>
-      <c r="AK22">
+      <c r="AL22">
         <v>0.1805</v>
       </c>
-      <c r="AL22">
+      <c r="AM22">
         <v>0.2105</v>
       </c>
-      <c r="AM22">
+      <c r="AN22">
         <v>0.2143</v>
       </c>
-      <c r="AN22">
+      <c r="AO22">
         <v>0.1787</v>
       </c>
     </row>
-    <row r="23" spans="1:40">
-      <c r="A23" t="s">
-        <v>22</v>
+    <row r="23" spans="1:41">
+      <c r="A23" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="B23">
+        <v>733000000</v>
+      </c>
+      <c r="C23">
         <v>690000000</v>
       </c>
-      <c r="C23">
+      <c r="D23">
         <v>747000000</v>
       </c>
-      <c r="D23">
+      <c r="E23">
         <v>604000000</v>
       </c>
-      <c r="E23">
+      <c r="F23">
         <v>697000000</v>
       </c>
-      <c r="F23">
+      <c r="G23">
         <v>714000000</v>
       </c>
-      <c r="G23">
+      <c r="H23">
         <v>763000000</v>
       </c>
-      <c r="H23">
+      <c r="I23">
         <v>519000000</v>
       </c>
-      <c r="I23">
+      <c r="J23">
         <v>537000000</v>
       </c>
-      <c r="J23">
+      <c r="K23">
         <v>555000000</v>
       </c>
-      <c r="K23">
+      <c r="L23">
         <v>694000000</v>
       </c>
-      <c r="L23">
+      <c r="M23">
         <v>634000000</v>
       </c>
-      <c r="M23">
+      <c r="N23">
         <v>564000000</v>
       </c>
-      <c r="N23">
+      <c r="O23">
         <v>583000000</v>
       </c>
-      <c r="O23">
+      <c r="P23">
         <v>587000000</v>
       </c>
-      <c r="P23">
+      <c r="Q23">
         <v>508000000</v>
       </c>
-      <c r="Q23">
+      <c r="R23">
         <v>437000000</v>
       </c>
-      <c r="R23">
+      <c r="S23">
         <v>764000000</v>
       </c>
-      <c r="S23">
+      <c r="T23">
         <v>733000000</v>
       </c>
-      <c r="T23">
+      <c r="U23">
         <v>659000000</v>
       </c>
-      <c r="U23">
+      <c r="V23">
         <v>349000000</v>
       </c>
-      <c r="V23">
+      <c r="W23">
         <v>685000000</v>
       </c>
-      <c r="W23">
+      <c r="X23">
         <v>620000000</v>
       </c>
-      <c r="X23">
+      <c r="Y23">
         <v>502000000</v>
       </c>
-      <c r="Y23">
+      <c r="Z23">
         <v>595000000</v>
       </c>
-      <c r="Z23">
+      <c r="AA23">
         <v>563000000</v>
       </c>
-      <c r="AA23">
+      <c r="AB23">
         <v>617000000</v>
       </c>
-      <c r="AB23">
+      <c r="AC23">
         <v>368000000</v>
       </c>
-      <c r="AC23">
+      <c r="AD23">
         <v>577000000</v>
       </c>
-      <c r="AD23">
+      <c r="AE23">
         <v>580000000</v>
       </c>
-      <c r="AE23">
+      <c r="AF23">
         <v>418000000</v>
       </c>
-      <c r="AF23">
+      <c r="AG23">
         <v>405000000</v>
       </c>
-      <c r="AG23">
+      <c r="AH23">
         <v>477000000</v>
       </c>
-      <c r="AH23">
+      <c r="AI23">
         <v>560000000</v>
       </c>
-      <c r="AI23">
+      <c r="AJ23">
         <v>622000000</v>
       </c>
-      <c r="AJ23">
+      <c r="AK23">
         <v>363000000</v>
       </c>
-      <c r="AK23">
+      <c r="AL23">
         <v>467000000</v>
       </c>
-      <c r="AL23">
+      <c r="AM23">
         <v>540000000</v>
       </c>
-      <c r="AM23">
+      <c r="AN23">
         <v>579000000</v>
       </c>
-      <c r="AN23">
+      <c r="AO23">
         <v>464000000</v>
       </c>
     </row>
-    <row r="24" spans="1:40">
-      <c r="A24" t="s">
-        <v>23</v>
-      </c>
-      <c r="AA24">
+    <row r="24" spans="1:41">
+      <c r="A24" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="AB24">
         <v>2000000</v>
       </c>
-      <c r="AD24">
+      <c r="AE24">
         <v>1000000</v>
       </c>
     </row>
-    <row r="25" spans="1:40">
-      <c r="A25" t="s">
-        <v>24</v>
+    <row r="25" spans="1:41">
+      <c r="A25" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="B25">
+        <v>733000000</v>
+      </c>
+      <c r="C25">
         <v>690000000</v>
       </c>
-      <c r="C25">
+      <c r="D25">
         <v>747000000</v>
       </c>
-      <c r="D25">
+      <c r="E25">
         <v>604000000</v>
       </c>
-      <c r="E25">
+      <c r="F25">
         <v>697000000</v>
       </c>
-      <c r="F25">
+      <c r="G25">
         <v>714000000</v>
       </c>
-      <c r="G25">
+      <c r="H25">
         <v>763000000</v>
       </c>
-      <c r="H25">
+      <c r="I25">
         <v>519000000</v>
       </c>
-      <c r="I25">
+      <c r="J25">
         <v>537000000</v>
       </c>
-      <c r="J25">
+      <c r="K25">
         <v>555000000</v>
       </c>
-      <c r="K25">
+      <c r="L25">
         <v>694000000</v>
       </c>
-      <c r="L25">
+      <c r="M25">
         <v>634000000</v>
       </c>
-      <c r="M25">
+      <c r="N25">
         <v>564000000</v>
       </c>
-      <c r="N25">
+      <c r="O25">
         <v>583000000</v>
       </c>
-      <c r="O25">
+      <c r="P25">
         <v>587000000</v>
       </c>
-      <c r="P25">
+      <c r="Q25">
         <v>508000000</v>
       </c>
-      <c r="Q25">
+      <c r="R25">
         <v>437000000</v>
       </c>
-      <c r="R25">
+      <c r="S25">
         <v>764000000</v>
       </c>
-      <c r="S25">
+      <c r="T25">
         <v>733000000</v>
       </c>
-      <c r="T25">
+      <c r="U25">
         <v>659000000</v>
       </c>
-      <c r="U25">
+      <c r="V25">
         <v>349000000</v>
       </c>
-      <c r="V25">
+      <c r="W25">
         <v>685000000</v>
       </c>
-      <c r="W25">
+      <c r="X25">
         <v>620000000</v>
       </c>
-      <c r="X25">
+      <c r="Y25">
         <v>502000000</v>
       </c>
-      <c r="Y25">
+      <c r="Z25">
         <v>593000000</v>
       </c>
-      <c r="Z25">
+      <c r="AA25">
         <v>563000000</v>
       </c>
-      <c r="AA25">
+      <c r="AB25">
         <v>619000000</v>
       </c>
-      <c r="AB25">
+      <c r="AC25">
         <v>368000000</v>
       </c>
-      <c r="AC25">
+      <c r="AD25">
         <v>576000000</v>
       </c>
-      <c r="AD25">
+      <c r="AE25">
         <v>581000000</v>
       </c>
-      <c r="AE25">
+      <c r="AF25">
         <v>418000000</v>
       </c>
-      <c r="AF25">
+      <c r="AG25">
         <v>405000000</v>
       </c>
-      <c r="AG25">
+      <c r="AH25">
         <v>477000000</v>
       </c>
-      <c r="AH25">
+      <c r="AI25">
         <v>560000000</v>
       </c>
-      <c r="AI25">
+      <c r="AJ25">
         <v>622000000</v>
       </c>
-      <c r="AJ25">
+      <c r="AK25">
         <v>363000000</v>
       </c>
-      <c r="AK25">
+      <c r="AL25">
         <v>467000000</v>
       </c>
-      <c r="AL25">
+      <c r="AM25">
         <v>540000000</v>
       </c>
-      <c r="AM25">
+      <c r="AN25">
         <v>579000000</v>
       </c>
-      <c r="AN25">
+      <c r="AO25">
         <v>464000000</v>
       </c>
     </row>
-    <row r="26" spans="1:40">
-      <c r="A26" t="s">
-        <v>25</v>
+    <row r="26" spans="1:41">
+      <c r="A26" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="B26">
+        <v>2.0406</v>
+      </c>
+      <c r="C26">
         <v>1.8761</v>
       </c>
-      <c r="C26">
+      <c r="D26">
         <v>2.0333</v>
       </c>
-      <c r="D26">
+      <c r="E26">
         <v>1.6478</v>
       </c>
-      <c r="E26">
+      <c r="F26">
         <v>1.8993</v>
       </c>
-      <c r="F26">
+      <c r="G26">
         <v>2.0534</v>
       </c>
-      <c r="G26">
+      <c r="H26">
         <v>2.2059</v>
       </c>
-      <c r="H26">
+      <c r="I26">
         <v>1.4797</v>
       </c>
-      <c r="I26">
+      <c r="J26">
         <v>1.5211</v>
       </c>
-      <c r="J26">
+      <c r="K26">
         <v>1.5741</v>
       </c>
-      <c r="K26">
+      <c r="L26">
         <v>1.9707</v>
       </c>
-      <c r="L26">
+      <c r="M26">
         <v>1.7922</v>
       </c>
-      <c r="M26">
+      <c r="N26">
         <v>1.5565</v>
       </c>
-      <c r="N26">
+      <c r="O26">
         <v>1.5897</v>
       </c>
-      <c r="O26">
+      <c r="P26">
         <v>1.5705</v>
       </c>
-      <c r="P26">
+      <c r="Q26">
         <v>1.3442</v>
       </c>
-      <c r="Q26">
+      <c r="R26">
         <v>1.1349</v>
       </c>
-      <c r="R26">
+      <c r="S26">
         <v>2.0375</v>
       </c>
-      <c r="S26">
+      <c r="T26">
         <v>2.0048</v>
       </c>
-      <c r="T26">
+      <c r="U26">
         <v>1.7935</v>
       </c>
-      <c r="U26">
+      <c r="V26">
         <v>0.9465</v>
       </c>
-      <c r="V26">
+      <c r="W26">
         <v>1.8376</v>
       </c>
-      <c r="W26">
+      <c r="X26">
         <v>1.6516</v>
       </c>
-      <c r="X26">
+      <c r="Y26">
         <v>1.3168</v>
       </c>
-      <c r="Y26">
+      <c r="Z26">
         <v>1.5376</v>
       </c>
-      <c r="Z26">
+      <c r="AA26">
         <v>1.4497</v>
       </c>
-      <c r="AA26">
+      <c r="AB26">
         <v>1.5654</v>
       </c>
-      <c r="AB26">
+      <c r="AC26">
         <v>0.9213</v>
       </c>
-      <c r="AC26">
+      <c r="AD26">
         <v>1.4279</v>
       </c>
-      <c r="AD26">
+      <c r="AE26">
         <v>1.4264</v>
       </c>
-      <c r="AE26">
+      <c r="AF26">
         <v>1.0178</v>
       </c>
-      <c r="AF26">
+      <c r="AG26">
         <v>0.9825</v>
       </c>
-      <c r="AG26">
+      <c r="AH26">
         <v>1.1424</v>
       </c>
-      <c r="AH26">
+      <c r="AI26">
         <v>1.3271</v>
       </c>
-      <c r="AI26">
+      <c r="AJ26">
         <v>1.4539</v>
       </c>
-      <c r="AJ26">
+      <c r="AK26">
         <v>0.843</v>
       </c>
-      <c r="AK26">
+      <c r="AL26">
         <v>1.0727</v>
       </c>
-      <c r="AL26">
+      <c r="AM26">
         <v>1.2193</v>
       </c>
-      <c r="AM26">
+      <c r="AN26">
         <v>1.2805</v>
       </c>
-      <c r="AN26">
+      <c r="AO26">
         <v>1.0213</v>
       </c>
     </row>
-    <row r="27" spans="1:40">
-      <c r="A27" t="s">
-        <v>26</v>
+    <row r="27" spans="1:41">
+      <c r="A27" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="B27">
+        <v>2.0142</v>
+      </c>
+      <c r="C27">
         <v>1.8528</v>
       </c>
-      <c r="C27">
+      <c r="D27">
         <v>2.0074</v>
       </c>
-      <c r="D27">
+      <c r="E27">
         <v>1.6235</v>
       </c>
-      <c r="E27">
+      <c r="F27">
         <v>1.874</v>
       </c>
-      <c r="F27">
+      <c r="G27">
         <v>2.0198</v>
       </c>
-      <c r="G27">
+      <c r="H27">
         <v>2.1702</v>
       </c>
-      <c r="H27">
+      <c r="I27">
         <v>1.4591</v>
       </c>
-      <c r="I27">
+      <c r="J27">
         <v>1.5046</v>
       </c>
-      <c r="J27">
+      <c r="K27">
         <v>1.5539</v>
       </c>
-      <c r="K27">
+      <c r="L27">
         <v>1.9472</v>
       </c>
-      <c r="L27">
+      <c r="M27">
         <v>1.771</v>
       </c>
-      <c r="M27">
+      <c r="N27">
         <v>1.5413</v>
       </c>
-      <c r="N27">
+      <c r="O27">
         <v>1.5731</v>
       </c>
-      <c r="O27">
+      <c r="P27">
         <v>1.5547</v>
       </c>
-      <c r="P27">
+      <c r="Q27">
         <v>1.3309</v>
       </c>
-      <c r="Q27">
+      <c r="R27">
         <v>1.1263</v>
       </c>
-      <c r="R27">
+      <c r="S27">
         <v>2.0138</v>
       </c>
-      <c r="S27">
+      <c r="T27">
         <v>1.9789</v>
       </c>
-      <c r="T27">
+      <c r="U27">
         <v>1.7686</v>
       </c>
-      <c r="U27">
+      <c r="V27">
         <v>0.9340000000000001</v>
       </c>
-      <c r="V27">
+      <c r="W27">
         <v>1.8097</v>
       </c>
-      <c r="W27">
+      <c r="X27">
         <v>1.6277</v>
       </c>
-      <c r="X27">
+      <c r="Y27">
         <v>1.2991</v>
       </c>
-      <c r="Y27">
+      <c r="Z27">
         <v>1.5199</v>
       </c>
-      <c r="Z27">
+      <c r="AA27">
         <v>1.4318</v>
       </c>
-      <c r="AA27">
+      <c r="AB27">
         <v>1.547</v>
       </c>
-      <c r="AB27">
+      <c r="AC27">
         <v>0.9118000000000001</v>
       </c>
-      <c r="AC27">
+      <c r="AD27">
         <v>1.4093</v>
       </c>
-      <c r="AD27">
+      <c r="AE27">
         <v>1.4072</v>
       </c>
-      <c r="AE27">
+      <c r="AF27">
         <v>1.0031</v>
       </c>
-      <c r="AF27">
+      <c r="AG27">
         <v>0.9671999999999999</v>
       </c>
-      <c r="AG27">
+      <c r="AH27">
         <v>1.1213</v>
       </c>
-      <c r="AH27">
+      <c r="AI27">
         <v>1.3031</v>
       </c>
-      <c r="AI27">
+      <c r="AJ27">
         <v>1.4288</v>
       </c>
-      <c r="AJ27">
+      <c r="AK27">
         <v>0.8272</v>
       </c>
-      <c r="AK27">
+      <c r="AL27">
         <v>1.0511</v>
       </c>
-      <c r="AL27">
+      <c r="AM27">
         <v>1.1943</v>
       </c>
-      <c r="AM27">
+      <c r="AN27">
         <v>1.2559</v>
       </c>
-      <c r="AN27">
+      <c r="AO27">
         <v>1.0027</v>
       </c>
     </row>
-    <row r="28" spans="1:40">
-      <c r="A28" t="s">
-        <v>27</v>
-      </c>
-      <c r="AA28">
+    <row r="28" spans="1:41">
+      <c r="A28" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AB28">
         <v>0.005</v>
       </c>
-      <c r="AD28">
+      <c r="AE28">
         <v>0.0024</v>
       </c>
     </row>
-    <row r="29" spans="1:40">
-      <c r="A29" t="s">
-        <v>28</v>
-      </c>
-      <c r="AA29">
+    <row r="29" spans="1:41">
+      <c r="A29" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AB29">
         <v>0.0051</v>
       </c>
-      <c r="AD29">
+      <c r="AE29">
         <v>0.0025</v>
       </c>
     </row>
-    <row r="30" spans="1:40">
-      <c r="A30" t="s">
-        <v>29</v>
+    <row r="30" spans="1:41">
+      <c r="A30" s="1" t="s">
+        <v>69</v>
       </c>
       <c r="B30">
+        <v>2.0406</v>
+      </c>
+      <c r="C30">
         <v>1.8761</v>
       </c>
-      <c r="C30">
+      <c r="D30">
         <v>2.0333</v>
       </c>
-      <c r="D30">
+      <c r="E30">
         <v>1.6478</v>
       </c>
-      <c r="E30">
+      <c r="F30">
         <v>1.8993</v>
       </c>
-      <c r="F30">
+      <c r="G30">
         <v>2.0534</v>
       </c>
-      <c r="G30">
+      <c r="H30">
         <v>2.2059</v>
       </c>
-      <c r="H30">
+      <c r="I30">
         <v>1.4797</v>
       </c>
-      <c r="I30">
+      <c r="J30">
         <v>1.5211</v>
       </c>
-      <c r="J30">
+      <c r="K30">
         <v>1.5741</v>
       </c>
-      <c r="K30">
+      <c r="L30">
         <v>1.9707</v>
       </c>
-      <c r="L30">
+      <c r="M30">
         <v>1.7922</v>
       </c>
-      <c r="M30">
+      <c r="N30">
         <v>1.5565</v>
       </c>
-      <c r="N30">
+      <c r="O30">
         <v>1.5897</v>
       </c>
-      <c r="O30">
+      <c r="P30">
         <v>1.5705</v>
       </c>
-      <c r="P30">
+      <c r="Q30">
         <v>1.3442</v>
       </c>
-      <c r="Q30">
+      <c r="R30">
         <v>1.1349</v>
       </c>
-      <c r="R30">
+      <c r="S30">
         <v>2.0375</v>
       </c>
-      <c r="S30">
+      <c r="T30">
         <v>2.0048</v>
       </c>
-      <c r="T30">
+      <c r="U30">
         <v>1.7935</v>
       </c>
-      <c r="U30">
+      <c r="V30">
         <v>0.9465</v>
       </c>
-      <c r="V30">
+      <c r="W30">
         <v>1.8376</v>
       </c>
-      <c r="W30">
+      <c r="X30">
         <v>1.6516</v>
       </c>
-      <c r="X30">
+      <c r="Y30">
         <v>1.3168</v>
       </c>
-      <c r="Y30">
+      <c r="Z30">
         <v>1.5326</v>
       </c>
-      <c r="Z30">
+      <c r="AA30">
         <v>1.4497</v>
       </c>
-      <c r="AA30">
+      <c r="AB30">
         <v>1.5704</v>
       </c>
-      <c r="AB30">
+      <c r="AC30">
         <v>0.9213</v>
       </c>
-      <c r="AC30">
+      <c r="AD30">
         <v>1.4255</v>
       </c>
-      <c r="AD30">
+      <c r="AE30">
         <v>1.4289</v>
       </c>
-      <c r="AE30">
+      <c r="AF30">
         <v>1.0178</v>
       </c>
-      <c r="AF30">
+      <c r="AG30">
         <v>0.9825</v>
       </c>
-      <c r="AG30">
+      <c r="AH30">
         <v>1.1424</v>
       </c>
-      <c r="AH30">
+      <c r="AI30">
         <v>1.3271</v>
       </c>
-      <c r="AI30">
+      <c r="AJ30">
         <v>1.4539</v>
       </c>
-      <c r="AJ30">
+      <c r="AK30">
         <v>0.843</v>
       </c>
-      <c r="AK30">
+      <c r="AL30">
         <v>1.0727</v>
       </c>
-      <c r="AL30">
+      <c r="AM30">
         <v>1.2193</v>
       </c>
-      <c r="AM30">
+      <c r="AN30">
         <v>1.2805</v>
       </c>
-      <c r="AN30">
+      <c r="AO30">
         <v>1.0213</v>
       </c>
     </row>
-    <row r="31" spans="1:40">
-      <c r="A31" t="s">
-        <v>30</v>
+    <row r="31" spans="1:41">
+      <c r="A31" s="1" t="s">
+        <v>70</v>
       </c>
       <c r="B31">
+        <v>2.0142</v>
+      </c>
+      <c r="C31">
         <v>1.8528</v>
       </c>
-      <c r="C31">
+      <c r="D31">
         <v>2.0074</v>
       </c>
-      <c r="D31">
+      <c r="E31">
         <v>1.6235</v>
       </c>
-      <c r="E31">
+      <c r="F31">
         <v>1.874</v>
       </c>
-      <c r="F31">
+      <c r="G31">
         <v>2.0198</v>
       </c>
-      <c r="G31">
+      <c r="H31">
         <v>2.1702</v>
       </c>
-      <c r="H31">
+      <c r="I31">
         <v>1.4591</v>
       </c>
-      <c r="I31">
+      <c r="J31">
         <v>1.5046</v>
       </c>
-      <c r="J31">
+      <c r="K31">
         <v>1.5539</v>
       </c>
-      <c r="K31">
+      <c r="L31">
         <v>1.9472</v>
       </c>
-      <c r="L31">
+      <c r="M31">
         <v>1.771</v>
       </c>
-      <c r="M31">
+      <c r="N31">
         <v>1.5413</v>
       </c>
-      <c r="N31">
+      <c r="O31">
         <v>1.5731</v>
       </c>
-      <c r="O31">
+      <c r="P31">
         <v>1.5547</v>
       </c>
-      <c r="P31">
+      <c r="Q31">
         <v>1.3309</v>
       </c>
-      <c r="Q31">
+      <c r="R31">
         <v>1.1263</v>
       </c>
-      <c r="R31">
+      <c r="S31">
         <v>2.0138</v>
       </c>
-      <c r="S31">
+      <c r="T31">
         <v>1.9789</v>
       </c>
-      <c r="T31">
+      <c r="U31">
         <v>1.7686</v>
       </c>
-      <c r="U31">
+      <c r="V31">
         <v>0.9340000000000001</v>
       </c>
-      <c r="V31">
+      <c r="W31">
         <v>1.8097</v>
       </c>
-      <c r="W31">
+      <c r="X31">
         <v>1.6277</v>
       </c>
-      <c r="X31">
+      <c r="Y31">
         <v>1.2991</v>
       </c>
-      <c r="Y31">
+      <c r="Z31">
         <v>1.5149</v>
       </c>
-      <c r="Z31">
+      <c r="AA31">
         <v>1.4318</v>
       </c>
-      <c r="AA31">
+      <c r="AB31">
         <v>1.552</v>
       </c>
-      <c r="AB31">
+      <c r="AC31">
         <v>0.9118000000000001</v>
       </c>
-      <c r="AC31">
+      <c r="AD31">
         <v>1.4069</v>
       </c>
-      <c r="AD31">
+      <c r="AE31">
         <v>1.4096</v>
       </c>
-      <c r="AE31">
+      <c r="AF31">
         <v>1.0031</v>
       </c>
-      <c r="AF31">
+      <c r="AG31">
         <v>0.9671999999999999</v>
       </c>
-      <c r="AG31">
+      <c r="AH31">
         <v>1.1213</v>
       </c>
-      <c r="AH31">
+      <c r="AI31">
         <v>1.3031</v>
       </c>
-      <c r="AI31">
+      <c r="AJ31">
         <v>1.4288</v>
       </c>
-      <c r="AJ31">
+      <c r="AK31">
         <v>0.8272</v>
       </c>
-      <c r="AK31">
+      <c r="AL31">
         <v>1.0511</v>
       </c>
-      <c r="AL31">
+      <c r="AM31">
         <v>1.1943</v>
       </c>
-      <c r="AM31">
+      <c r="AN31">
         <v>1.2559</v>
       </c>
-      <c r="AN31">
+      <c r="AO31">
         <v>1.0027</v>
       </c>
     </row>
-    <row r="32" spans="1:40">
-      <c r="A32" t="s">
-        <v>31</v>
-      </c>
-      <c r="B32">
+    <row r="32" spans="1:41">
+      <c r="A32" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C32">
         <v>372418000</v>
       </c>
-      <c r="C32">
+      <c r="D32">
         <v>372123000</v>
       </c>
-      <c r="D32">
+      <c r="E32">
         <v>372037000</v>
       </c>
-      <c r="E32">
+      <c r="F32">
         <v>371685000</v>
       </c>
-      <c r="F32">
+      <c r="G32">
         <v>353494000</v>
       </c>
-      <c r="G32">
+      <c r="H32">
         <v>351582000</v>
       </c>
-      <c r="H32">
+      <c r="I32">
         <v>355690000</v>
       </c>
-      <c r="I32">
+      <c r="J32">
         <v>357719000</v>
       </c>
-      <c r="J32">
+      <c r="K32">
         <v>357168000</v>
       </c>
-      <c r="K32">
+      <c r="L32">
         <v>356413000</v>
       </c>
-      <c r="L32">
+      <c r="M32">
         <v>357993000</v>
       </c>
-      <c r="M32">
+      <c r="N32">
         <v>365851000</v>
       </c>
-      <c r="N32">
+      <c r="O32">
         <v>370595000</v>
       </c>
-      <c r="O32">
+      <c r="P32">
         <v>377577000</v>
       </c>
-      <c r="P32">
+      <c r="Q32">
         <v>381703000</v>
       </c>
-      <c r="Q32">
+      <c r="R32">
         <v>383651000</v>
       </c>
-      <c r="R32">
+      <c r="S32">
         <v>379383000</v>
       </c>
-      <c r="S32">
+      <c r="T32">
         <v>370410000</v>
       </c>
-      <c r="T32">
+      <c r="U32">
         <v>372619000</v>
       </c>
-      <c r="U32">
+      <c r="V32">
         <v>375477000</v>
       </c>
-      <c r="V32">
+      <c r="W32">
         <v>378518000</v>
       </c>
-      <c r="W32">
+      <c r="X32">
         <v>381699000</v>
       </c>
-      <c r="X32">
+      <c r="Y32">
         <v>387828000</v>
       </c>
-      <c r="Y32">
+      <c r="Z32">
         <v>389046000</v>
       </c>
-      <c r="Z32">
+      <c r="AA32">
         <v>393212000</v>
       </c>
-      <c r="AA32">
+      <c r="AB32">
         <v>398847000</v>
       </c>
-      <c r="AB32">
+      <c r="AC32">
         <v>403615000</v>
       </c>
-      <c r="AC32">
+      <c r="AD32">
         <v>407012000</v>
       </c>
-      <c r="AD32">
+      <c r="AE32">
         <v>412167000</v>
       </c>
-      <c r="AE32">
+      <c r="AF32">
         <v>416712000</v>
       </c>
-      <c r="AF32">
+      <c r="AG32">
         <v>418750000</v>
       </c>
-      <c r="AG32">
+      <c r="AH32">
         <v>424339000</v>
       </c>
-      <c r="AH32">
+      <c r="AI32">
         <v>429736000</v>
       </c>
-      <c r="AI32">
+      <c r="AJ32">
         <v>435320000</v>
       </c>
-      <c r="AJ32">
+      <c r="AK32">
         <v>438815000</v>
       </c>
-      <c r="AK32">
+      <c r="AL32">
         <v>445225000</v>
       </c>
-      <c r="AL32">
+      <c r="AM32">
         <v>452154000</v>
       </c>
-      <c r="AM32">
+      <c r="AN32">
         <v>461040000</v>
       </c>
-      <c r="AN32">
+      <c r="AO32">
         <v>462751000</v>
       </c>
     </row>
-    <row r="33" spans="1:40">
-      <c r="A33" t="s">
-        <v>32</v>
+    <row r="33" spans="1:41">
+      <c r="A33" s="1" t="s">
+        <v>72</v>
       </c>
       <c r="B33">
         <v>0</v>
@@ -4048,126 +4237,132 @@
       <c r="AN33">
         <v>0</v>
       </c>
+      <c r="AO33">
+        <v>0</v>
+      </c>
     </row>
-    <row r="34" spans="1:40">
-      <c r="A34" t="s">
-        <v>33</v>
+    <row r="34" spans="1:41">
+      <c r="A34" s="1" t="s">
+        <v>73</v>
       </c>
       <c r="B34">
+        <v>0</v>
+      </c>
+      <c r="C34">
         <v>1.3138</v>
       </c>
-      <c r="C34">
+      <c r="D34">
         <v>-1.3456</v>
       </c>
-      <c r="D34">
+      <c r="E34">
         <v>1.4827</v>
       </c>
-      <c r="E34">
+      <c r="F34">
         <v>1.385</v>
       </c>
-      <c r="F34">
+      <c r="G34">
         <v>0.1298</v>
       </c>
-      <c r="G34">
+      <c r="H34">
         <v>-2.5026</v>
       </c>
-      <c r="H34">
+      <c r="I34">
         <v>-1.2634</v>
       </c>
-      <c r="I34">
+      <c r="J34">
         <v>1.1518</v>
       </c>
-      <c r="J34">
+      <c r="K34">
         <v>-1.8468</v>
       </c>
-      <c r="K34">
+      <c r="L34">
         <v>0.4377</v>
       </c>
-      <c r="L34">
+      <c r="M34">
         <v>1.2355</v>
       </c>
-      <c r="M34">
+      <c r="N34">
         <v>0.3174</v>
       </c>
-      <c r="N34">
+      <c r="O34">
         <v>1.5227</v>
       </c>
-      <c r="O34">
+      <c r="P34">
         <v>0.0771</v>
       </c>
-      <c r="P34">
+      <c r="Q34">
         <v>-0.1762</v>
       </c>
-      <c r="Q34">
+      <c r="R34">
         <v>0.3368</v>
       </c>
-      <c r="R34">
+      <c r="S34">
         <v>1.7504</v>
       </c>
-      <c r="S34">
+      <c r="T34">
         <v>-0.4331</v>
       </c>
-      <c r="T34">
+      <c r="U34">
         <v>1.4789</v>
       </c>
-      <c r="U34">
+      <c r="V34">
         <v>1.6276</v>
       </c>
-      <c r="V34">
+      <c r="W34">
         <v>-0.713</v>
       </c>
-      <c r="W34">
+      <c r="X34">
         <v>0.167</v>
       </c>
-      <c r="X34">
+      <c r="Y34">
         <v>1.2496</v>
       </c>
-      <c r="Y34">
+      <c r="Z34">
         <v>0.0053</v>
       </c>
-      <c r="Z34">
+      <c r="AA34">
         <v>-1.0022</v>
       </c>
-      <c r="AA34">
+      <c r="AB34">
         <v>0.8084</v>
       </c>
-      <c r="AB34">
+      <c r="AC34">
         <v>1.0965</v>
       </c>
-      <c r="AC34">
+      <c r="AD34">
         <v>1.2765</v>
       </c>
-      <c r="AD34">
+      <c r="AE34">
         <v>-0.0939</v>
       </c>
-      <c r="AE34">
+      <c r="AF34">
         <v>-1.8224</v>
       </c>
-      <c r="AF34">
+      <c r="AG34">
         <v>0.1473</v>
       </c>
-      <c r="AG34">
+      <c r="AH34">
         <v>0.1487</v>
       </c>
-      <c r="AH34">
+      <c r="AI34">
         <v>-0.5084</v>
       </c>
-      <c r="AI34">
+      <c r="AJ34">
         <v>-0.5605</v>
       </c>
-      <c r="AJ34">
+      <c r="AK34">
         <v>0.7373</v>
       </c>
-      <c r="AK34">
+      <c r="AL34">
         <v>-0.5698</v>
       </c>
-      <c r="AL34">
+      <c r="AM34">
         <v>0.4703</v>
       </c>
-      <c r="AM34">
+      <c r="AN34">
         <v>-0.8044</v>
       </c>
-      <c r="AN34">
+      <c r="AO34">
         <v>0.15</v>
       </c>
     </row>
